--- a/Running projects/NASTP II/NASTP Silicon Smoke Extract Fans BOQ (for Quote) (rev).xlsx
+++ b/Running projects/NASTP II/NASTP Silicon Smoke Extract Fans BOQ (for Quote) (rev).xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Smoke Extract Fans Integrated with Fire Alarm - NASTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18391FE-DE92-4899-9306-09DD9A54E99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3FEF65-D722-4985-B9B8-88454A71586C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Smoke Extraction (S-2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Smoke Extraction (S-3)" sheetId="3" r:id="rId2"/>
-    <sheet name="Smoke Extraction (S-4)" sheetId="4" r:id="rId3"/>
+    <sheet name="Summary" sheetId="5" r:id="rId1"/>
+    <sheet name="Smoke Extraction (S-2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Smoke Extraction (S-3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Smoke Extraction (S-4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Smoke Extraction (S-2)'!$A$1:$G$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Smoke Extraction (S-3)'!$A$1:$G$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Smoke Extraction (S-4)'!$A$1:$G$53</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Smoke Extraction (S-2)'!$1:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Smoke Extraction (S-3)'!$1:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Smoke Extraction (S-4)'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Smoke Extraction (S-2)'!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Smoke Extraction (S-3)'!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Smoke Extraction (S-4)'!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Smoke Extraction (S-2)'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Smoke Extraction (S-3)'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Smoke Extraction (S-4)'!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="78">
   <si>
     <t>Duct Work &amp; Accessories:</t>
   </si>
@@ -271,6 +273,21 @@
   <si>
     <t>iv</t>
   </si>
+  <si>
+    <t xml:space="preserve">Grand Total Amount </t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>SUMMARY OF BOQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SMOKE EXTRACT FANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NASTP SILICON-II KARACHI</t>
+  </si>
 </sst>
 </file>
 
@@ -283,11 +300,18 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,6 +398,67 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -808,260 +893,262 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1071,77 +1158,71 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1150,48 +1231,109 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{1BEE77EE-B845-4E2C-9067-611557CA2385}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{0D6C8435-2D87-4789-9A70-53B58A299E72}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8CB64796-3E1E-4CA0-81C6-07CC11C962EC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,6 +1346,211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF0EFA3-7545-4CBA-B16B-A5A1906D13A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4292600" y="463550"/>
+          <a:ext cx="776288" cy="730249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3418EB7-F0A3-499C-ADB6-8967C266D728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5079226" y="565147"/>
+          <a:ext cx="4528324" cy="681965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="828675" cy="571500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C727996A-DCAB-40F8-BB51-A65B31CD04D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6321425" y="6769100"/>
+          <a:ext cx="828675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1403,15 +1750,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D53A1A-A8B5-4B0A-8DAF-97BB219146F9}">
+  <dimension ref="A11:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="71.5" style="126" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="125"/>
+    <col min="5" max="5" width="14.1640625" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="254" width="9.33203125" style="125"/>
+    <col min="255" max="255" width="7.33203125" style="125" customWidth="1"/>
+    <col min="256" max="256" width="47.5" style="125" customWidth="1"/>
+    <col min="257" max="257" width="20.33203125" style="125" customWidth="1"/>
+    <col min="258" max="258" width="18" style="125" customWidth="1"/>
+    <col min="259" max="259" width="21.33203125" style="125" customWidth="1"/>
+    <col min="260" max="510" width="9.33203125" style="125"/>
+    <col min="511" max="511" width="7.33203125" style="125" customWidth="1"/>
+    <col min="512" max="512" width="47.5" style="125" customWidth="1"/>
+    <col min="513" max="513" width="20.33203125" style="125" customWidth="1"/>
+    <col min="514" max="514" width="18" style="125" customWidth="1"/>
+    <col min="515" max="515" width="21.33203125" style="125" customWidth="1"/>
+    <col min="516" max="766" width="9.33203125" style="125"/>
+    <col min="767" max="767" width="7.33203125" style="125" customWidth="1"/>
+    <col min="768" max="768" width="47.5" style="125" customWidth="1"/>
+    <col min="769" max="769" width="20.33203125" style="125" customWidth="1"/>
+    <col min="770" max="770" width="18" style="125" customWidth="1"/>
+    <col min="771" max="771" width="21.33203125" style="125" customWidth="1"/>
+    <col min="772" max="1022" width="9.33203125" style="125"/>
+    <col min="1023" max="1023" width="7.33203125" style="125" customWidth="1"/>
+    <col min="1024" max="1024" width="47.5" style="125" customWidth="1"/>
+    <col min="1025" max="1025" width="20.33203125" style="125" customWidth="1"/>
+    <col min="1026" max="1026" width="18" style="125" customWidth="1"/>
+    <col min="1027" max="1027" width="21.33203125" style="125" customWidth="1"/>
+    <col min="1028" max="1278" width="9.33203125" style="125"/>
+    <col min="1279" max="1279" width="7.33203125" style="125" customWidth="1"/>
+    <col min="1280" max="1280" width="47.5" style="125" customWidth="1"/>
+    <col min="1281" max="1281" width="20.33203125" style="125" customWidth="1"/>
+    <col min="1282" max="1282" width="18" style="125" customWidth="1"/>
+    <col min="1283" max="1283" width="21.33203125" style="125" customWidth="1"/>
+    <col min="1284" max="1534" width="9.33203125" style="125"/>
+    <col min="1535" max="1535" width="7.33203125" style="125" customWidth="1"/>
+    <col min="1536" max="1536" width="47.5" style="125" customWidth="1"/>
+    <col min="1537" max="1537" width="20.33203125" style="125" customWidth="1"/>
+    <col min="1538" max="1538" width="18" style="125" customWidth="1"/>
+    <col min="1539" max="1539" width="21.33203125" style="125" customWidth="1"/>
+    <col min="1540" max="1790" width="9.33203125" style="125"/>
+    <col min="1791" max="1791" width="7.33203125" style="125" customWidth="1"/>
+    <col min="1792" max="1792" width="47.5" style="125" customWidth="1"/>
+    <col min="1793" max="1793" width="20.33203125" style="125" customWidth="1"/>
+    <col min="1794" max="1794" width="18" style="125" customWidth="1"/>
+    <col min="1795" max="1795" width="21.33203125" style="125" customWidth="1"/>
+    <col min="1796" max="2046" width="9.33203125" style="125"/>
+    <col min="2047" max="2047" width="7.33203125" style="125" customWidth="1"/>
+    <col min="2048" max="2048" width="47.5" style="125" customWidth="1"/>
+    <col min="2049" max="2049" width="20.33203125" style="125" customWidth="1"/>
+    <col min="2050" max="2050" width="18" style="125" customWidth="1"/>
+    <col min="2051" max="2051" width="21.33203125" style="125" customWidth="1"/>
+    <col min="2052" max="2302" width="9.33203125" style="125"/>
+    <col min="2303" max="2303" width="7.33203125" style="125" customWidth="1"/>
+    <col min="2304" max="2304" width="47.5" style="125" customWidth="1"/>
+    <col min="2305" max="2305" width="20.33203125" style="125" customWidth="1"/>
+    <col min="2306" max="2306" width="18" style="125" customWidth="1"/>
+    <col min="2307" max="2307" width="21.33203125" style="125" customWidth="1"/>
+    <col min="2308" max="2558" width="9.33203125" style="125"/>
+    <col min="2559" max="2559" width="7.33203125" style="125" customWidth="1"/>
+    <col min="2560" max="2560" width="47.5" style="125" customWidth="1"/>
+    <col min="2561" max="2561" width="20.33203125" style="125" customWidth="1"/>
+    <col min="2562" max="2562" width="18" style="125" customWidth="1"/>
+    <col min="2563" max="2563" width="21.33203125" style="125" customWidth="1"/>
+    <col min="2564" max="2814" width="9.33203125" style="125"/>
+    <col min="2815" max="2815" width="7.33203125" style="125" customWidth="1"/>
+    <col min="2816" max="2816" width="47.5" style="125" customWidth="1"/>
+    <col min="2817" max="2817" width="20.33203125" style="125" customWidth="1"/>
+    <col min="2818" max="2818" width="18" style="125" customWidth="1"/>
+    <col min="2819" max="2819" width="21.33203125" style="125" customWidth="1"/>
+    <col min="2820" max="3070" width="9.33203125" style="125"/>
+    <col min="3071" max="3071" width="7.33203125" style="125" customWidth="1"/>
+    <col min="3072" max="3072" width="47.5" style="125" customWidth="1"/>
+    <col min="3073" max="3073" width="20.33203125" style="125" customWidth="1"/>
+    <col min="3074" max="3074" width="18" style="125" customWidth="1"/>
+    <col min="3075" max="3075" width="21.33203125" style="125" customWidth="1"/>
+    <col min="3076" max="3326" width="9.33203125" style="125"/>
+    <col min="3327" max="3327" width="7.33203125" style="125" customWidth="1"/>
+    <col min="3328" max="3328" width="47.5" style="125" customWidth="1"/>
+    <col min="3329" max="3329" width="20.33203125" style="125" customWidth="1"/>
+    <col min="3330" max="3330" width="18" style="125" customWidth="1"/>
+    <col min="3331" max="3331" width="21.33203125" style="125" customWidth="1"/>
+    <col min="3332" max="3582" width="9.33203125" style="125"/>
+    <col min="3583" max="3583" width="7.33203125" style="125" customWidth="1"/>
+    <col min="3584" max="3584" width="47.5" style="125" customWidth="1"/>
+    <col min="3585" max="3585" width="20.33203125" style="125" customWidth="1"/>
+    <col min="3586" max="3586" width="18" style="125" customWidth="1"/>
+    <col min="3587" max="3587" width="21.33203125" style="125" customWidth="1"/>
+    <col min="3588" max="3838" width="9.33203125" style="125"/>
+    <col min="3839" max="3839" width="7.33203125" style="125" customWidth="1"/>
+    <col min="3840" max="3840" width="47.5" style="125" customWidth="1"/>
+    <col min="3841" max="3841" width="20.33203125" style="125" customWidth="1"/>
+    <col min="3842" max="3842" width="18" style="125" customWidth="1"/>
+    <col min="3843" max="3843" width="21.33203125" style="125" customWidth="1"/>
+    <col min="3844" max="4094" width="9.33203125" style="125"/>
+    <col min="4095" max="4095" width="7.33203125" style="125" customWidth="1"/>
+    <col min="4096" max="4096" width="47.5" style="125" customWidth="1"/>
+    <col min="4097" max="4097" width="20.33203125" style="125" customWidth="1"/>
+    <col min="4098" max="4098" width="18" style="125" customWidth="1"/>
+    <col min="4099" max="4099" width="21.33203125" style="125" customWidth="1"/>
+    <col min="4100" max="4350" width="9.33203125" style="125"/>
+    <col min="4351" max="4351" width="7.33203125" style="125" customWidth="1"/>
+    <col min="4352" max="4352" width="47.5" style="125" customWidth="1"/>
+    <col min="4353" max="4353" width="20.33203125" style="125" customWidth="1"/>
+    <col min="4354" max="4354" width="18" style="125" customWidth="1"/>
+    <col min="4355" max="4355" width="21.33203125" style="125" customWidth="1"/>
+    <col min="4356" max="4606" width="9.33203125" style="125"/>
+    <col min="4607" max="4607" width="7.33203125" style="125" customWidth="1"/>
+    <col min="4608" max="4608" width="47.5" style="125" customWidth="1"/>
+    <col min="4609" max="4609" width="20.33203125" style="125" customWidth="1"/>
+    <col min="4610" max="4610" width="18" style="125" customWidth="1"/>
+    <col min="4611" max="4611" width="21.33203125" style="125" customWidth="1"/>
+    <col min="4612" max="4862" width="9.33203125" style="125"/>
+    <col min="4863" max="4863" width="7.33203125" style="125" customWidth="1"/>
+    <col min="4864" max="4864" width="47.5" style="125" customWidth="1"/>
+    <col min="4865" max="4865" width="20.33203125" style="125" customWidth="1"/>
+    <col min="4866" max="4866" width="18" style="125" customWidth="1"/>
+    <col min="4867" max="4867" width="21.33203125" style="125" customWidth="1"/>
+    <col min="4868" max="5118" width="9.33203125" style="125"/>
+    <col min="5119" max="5119" width="7.33203125" style="125" customWidth="1"/>
+    <col min="5120" max="5120" width="47.5" style="125" customWidth="1"/>
+    <col min="5121" max="5121" width="20.33203125" style="125" customWidth="1"/>
+    <col min="5122" max="5122" width="18" style="125" customWidth="1"/>
+    <col min="5123" max="5123" width="21.33203125" style="125" customWidth="1"/>
+    <col min="5124" max="5374" width="9.33203125" style="125"/>
+    <col min="5375" max="5375" width="7.33203125" style="125" customWidth="1"/>
+    <col min="5376" max="5376" width="47.5" style="125" customWidth="1"/>
+    <col min="5377" max="5377" width="20.33203125" style="125" customWidth="1"/>
+    <col min="5378" max="5378" width="18" style="125" customWidth="1"/>
+    <col min="5379" max="5379" width="21.33203125" style="125" customWidth="1"/>
+    <col min="5380" max="5630" width="9.33203125" style="125"/>
+    <col min="5631" max="5631" width="7.33203125" style="125" customWidth="1"/>
+    <col min="5632" max="5632" width="47.5" style="125" customWidth="1"/>
+    <col min="5633" max="5633" width="20.33203125" style="125" customWidth="1"/>
+    <col min="5634" max="5634" width="18" style="125" customWidth="1"/>
+    <col min="5635" max="5635" width="21.33203125" style="125" customWidth="1"/>
+    <col min="5636" max="5886" width="9.33203125" style="125"/>
+    <col min="5887" max="5887" width="7.33203125" style="125" customWidth="1"/>
+    <col min="5888" max="5888" width="47.5" style="125" customWidth="1"/>
+    <col min="5889" max="5889" width="20.33203125" style="125" customWidth="1"/>
+    <col min="5890" max="5890" width="18" style="125" customWidth="1"/>
+    <col min="5891" max="5891" width="21.33203125" style="125" customWidth="1"/>
+    <col min="5892" max="6142" width="9.33203125" style="125"/>
+    <col min="6143" max="6143" width="7.33203125" style="125" customWidth="1"/>
+    <col min="6144" max="6144" width="47.5" style="125" customWidth="1"/>
+    <col min="6145" max="6145" width="20.33203125" style="125" customWidth="1"/>
+    <col min="6146" max="6146" width="18" style="125" customWidth="1"/>
+    <col min="6147" max="6147" width="21.33203125" style="125" customWidth="1"/>
+    <col min="6148" max="6398" width="9.33203125" style="125"/>
+    <col min="6399" max="6399" width="7.33203125" style="125" customWidth="1"/>
+    <col min="6400" max="6400" width="47.5" style="125" customWidth="1"/>
+    <col min="6401" max="6401" width="20.33203125" style="125" customWidth="1"/>
+    <col min="6402" max="6402" width="18" style="125" customWidth="1"/>
+    <col min="6403" max="6403" width="21.33203125" style="125" customWidth="1"/>
+    <col min="6404" max="6654" width="9.33203125" style="125"/>
+    <col min="6655" max="6655" width="7.33203125" style="125" customWidth="1"/>
+    <col min="6656" max="6656" width="47.5" style="125" customWidth="1"/>
+    <col min="6657" max="6657" width="20.33203125" style="125" customWidth="1"/>
+    <col min="6658" max="6658" width="18" style="125" customWidth="1"/>
+    <col min="6659" max="6659" width="21.33203125" style="125" customWidth="1"/>
+    <col min="6660" max="6910" width="9.33203125" style="125"/>
+    <col min="6911" max="6911" width="7.33203125" style="125" customWidth="1"/>
+    <col min="6912" max="6912" width="47.5" style="125" customWidth="1"/>
+    <col min="6913" max="6913" width="20.33203125" style="125" customWidth="1"/>
+    <col min="6914" max="6914" width="18" style="125" customWidth="1"/>
+    <col min="6915" max="6915" width="21.33203125" style="125" customWidth="1"/>
+    <col min="6916" max="7166" width="9.33203125" style="125"/>
+    <col min="7167" max="7167" width="7.33203125" style="125" customWidth="1"/>
+    <col min="7168" max="7168" width="47.5" style="125" customWidth="1"/>
+    <col min="7169" max="7169" width="20.33203125" style="125" customWidth="1"/>
+    <col min="7170" max="7170" width="18" style="125" customWidth="1"/>
+    <col min="7171" max="7171" width="21.33203125" style="125" customWidth="1"/>
+    <col min="7172" max="7422" width="9.33203125" style="125"/>
+    <col min="7423" max="7423" width="7.33203125" style="125" customWidth="1"/>
+    <col min="7424" max="7424" width="47.5" style="125" customWidth="1"/>
+    <col min="7425" max="7425" width="20.33203125" style="125" customWidth="1"/>
+    <col min="7426" max="7426" width="18" style="125" customWidth="1"/>
+    <col min="7427" max="7427" width="21.33203125" style="125" customWidth="1"/>
+    <col min="7428" max="7678" width="9.33203125" style="125"/>
+    <col min="7679" max="7679" width="7.33203125" style="125" customWidth="1"/>
+    <col min="7680" max="7680" width="47.5" style="125" customWidth="1"/>
+    <col min="7681" max="7681" width="20.33203125" style="125" customWidth="1"/>
+    <col min="7682" max="7682" width="18" style="125" customWidth="1"/>
+    <col min="7683" max="7683" width="21.33203125" style="125" customWidth="1"/>
+    <col min="7684" max="7934" width="9.33203125" style="125"/>
+    <col min="7935" max="7935" width="7.33203125" style="125" customWidth="1"/>
+    <col min="7936" max="7936" width="47.5" style="125" customWidth="1"/>
+    <col min="7937" max="7937" width="20.33203125" style="125" customWidth="1"/>
+    <col min="7938" max="7938" width="18" style="125" customWidth="1"/>
+    <col min="7939" max="7939" width="21.33203125" style="125" customWidth="1"/>
+    <col min="7940" max="8190" width="9.33203125" style="125"/>
+    <col min="8191" max="8191" width="7.33203125" style="125" customWidth="1"/>
+    <col min="8192" max="8192" width="47.5" style="125" customWidth="1"/>
+    <col min="8193" max="8193" width="20.33203125" style="125" customWidth="1"/>
+    <col min="8194" max="8194" width="18" style="125" customWidth="1"/>
+    <col min="8195" max="8195" width="21.33203125" style="125" customWidth="1"/>
+    <col min="8196" max="8446" width="9.33203125" style="125"/>
+    <col min="8447" max="8447" width="7.33203125" style="125" customWidth="1"/>
+    <col min="8448" max="8448" width="47.5" style="125" customWidth="1"/>
+    <col min="8449" max="8449" width="20.33203125" style="125" customWidth="1"/>
+    <col min="8450" max="8450" width="18" style="125" customWidth="1"/>
+    <col min="8451" max="8451" width="21.33203125" style="125" customWidth="1"/>
+    <col min="8452" max="8702" width="9.33203125" style="125"/>
+    <col min="8703" max="8703" width="7.33203125" style="125" customWidth="1"/>
+    <col min="8704" max="8704" width="47.5" style="125" customWidth="1"/>
+    <col min="8705" max="8705" width="20.33203125" style="125" customWidth="1"/>
+    <col min="8706" max="8706" width="18" style="125" customWidth="1"/>
+    <col min="8707" max="8707" width="21.33203125" style="125" customWidth="1"/>
+    <col min="8708" max="8958" width="9.33203125" style="125"/>
+    <col min="8959" max="8959" width="7.33203125" style="125" customWidth="1"/>
+    <col min="8960" max="8960" width="47.5" style="125" customWidth="1"/>
+    <col min="8961" max="8961" width="20.33203125" style="125" customWidth="1"/>
+    <col min="8962" max="8962" width="18" style="125" customWidth="1"/>
+    <col min="8963" max="8963" width="21.33203125" style="125" customWidth="1"/>
+    <col min="8964" max="9214" width="9.33203125" style="125"/>
+    <col min="9215" max="9215" width="7.33203125" style="125" customWidth="1"/>
+    <col min="9216" max="9216" width="47.5" style="125" customWidth="1"/>
+    <col min="9217" max="9217" width="20.33203125" style="125" customWidth="1"/>
+    <col min="9218" max="9218" width="18" style="125" customWidth="1"/>
+    <col min="9219" max="9219" width="21.33203125" style="125" customWidth="1"/>
+    <col min="9220" max="9470" width="9.33203125" style="125"/>
+    <col min="9471" max="9471" width="7.33203125" style="125" customWidth="1"/>
+    <col min="9472" max="9472" width="47.5" style="125" customWidth="1"/>
+    <col min="9473" max="9473" width="20.33203125" style="125" customWidth="1"/>
+    <col min="9474" max="9474" width="18" style="125" customWidth="1"/>
+    <col min="9475" max="9475" width="21.33203125" style="125" customWidth="1"/>
+    <col min="9476" max="9726" width="9.33203125" style="125"/>
+    <col min="9727" max="9727" width="7.33203125" style="125" customWidth="1"/>
+    <col min="9728" max="9728" width="47.5" style="125" customWidth="1"/>
+    <col min="9729" max="9729" width="20.33203125" style="125" customWidth="1"/>
+    <col min="9730" max="9730" width="18" style="125" customWidth="1"/>
+    <col min="9731" max="9731" width="21.33203125" style="125" customWidth="1"/>
+    <col min="9732" max="9982" width="9.33203125" style="125"/>
+    <col min="9983" max="9983" width="7.33203125" style="125" customWidth="1"/>
+    <col min="9984" max="9984" width="47.5" style="125" customWidth="1"/>
+    <col min="9985" max="9985" width="20.33203125" style="125" customWidth="1"/>
+    <col min="9986" max="9986" width="18" style="125" customWidth="1"/>
+    <col min="9987" max="9987" width="21.33203125" style="125" customWidth="1"/>
+    <col min="9988" max="10238" width="9.33203125" style="125"/>
+    <col min="10239" max="10239" width="7.33203125" style="125" customWidth="1"/>
+    <col min="10240" max="10240" width="47.5" style="125" customWidth="1"/>
+    <col min="10241" max="10241" width="20.33203125" style="125" customWidth="1"/>
+    <col min="10242" max="10242" width="18" style="125" customWidth="1"/>
+    <col min="10243" max="10243" width="21.33203125" style="125" customWidth="1"/>
+    <col min="10244" max="10494" width="9.33203125" style="125"/>
+    <col min="10495" max="10495" width="7.33203125" style="125" customWidth="1"/>
+    <col min="10496" max="10496" width="47.5" style="125" customWidth="1"/>
+    <col min="10497" max="10497" width="20.33203125" style="125" customWidth="1"/>
+    <col min="10498" max="10498" width="18" style="125" customWidth="1"/>
+    <col min="10499" max="10499" width="21.33203125" style="125" customWidth="1"/>
+    <col min="10500" max="10750" width="9.33203125" style="125"/>
+    <col min="10751" max="10751" width="7.33203125" style="125" customWidth="1"/>
+    <col min="10752" max="10752" width="47.5" style="125" customWidth="1"/>
+    <col min="10753" max="10753" width="20.33203125" style="125" customWidth="1"/>
+    <col min="10754" max="10754" width="18" style="125" customWidth="1"/>
+    <col min="10755" max="10755" width="21.33203125" style="125" customWidth="1"/>
+    <col min="10756" max="11006" width="9.33203125" style="125"/>
+    <col min="11007" max="11007" width="7.33203125" style="125" customWidth="1"/>
+    <col min="11008" max="11008" width="47.5" style="125" customWidth="1"/>
+    <col min="11009" max="11009" width="20.33203125" style="125" customWidth="1"/>
+    <col min="11010" max="11010" width="18" style="125" customWidth="1"/>
+    <col min="11011" max="11011" width="21.33203125" style="125" customWidth="1"/>
+    <col min="11012" max="11262" width="9.33203125" style="125"/>
+    <col min="11263" max="11263" width="7.33203125" style="125" customWidth="1"/>
+    <col min="11264" max="11264" width="47.5" style="125" customWidth="1"/>
+    <col min="11265" max="11265" width="20.33203125" style="125" customWidth="1"/>
+    <col min="11266" max="11266" width="18" style="125" customWidth="1"/>
+    <col min="11267" max="11267" width="21.33203125" style="125" customWidth="1"/>
+    <col min="11268" max="11518" width="9.33203125" style="125"/>
+    <col min="11519" max="11519" width="7.33203125" style="125" customWidth="1"/>
+    <col min="11520" max="11520" width="47.5" style="125" customWidth="1"/>
+    <col min="11521" max="11521" width="20.33203125" style="125" customWidth="1"/>
+    <col min="11522" max="11522" width="18" style="125" customWidth="1"/>
+    <col min="11523" max="11523" width="21.33203125" style="125" customWidth="1"/>
+    <col min="11524" max="11774" width="9.33203125" style="125"/>
+    <col min="11775" max="11775" width="7.33203125" style="125" customWidth="1"/>
+    <col min="11776" max="11776" width="47.5" style="125" customWidth="1"/>
+    <col min="11777" max="11777" width="20.33203125" style="125" customWidth="1"/>
+    <col min="11778" max="11778" width="18" style="125" customWidth="1"/>
+    <col min="11779" max="11779" width="21.33203125" style="125" customWidth="1"/>
+    <col min="11780" max="12030" width="9.33203125" style="125"/>
+    <col min="12031" max="12031" width="7.33203125" style="125" customWidth="1"/>
+    <col min="12032" max="12032" width="47.5" style="125" customWidth="1"/>
+    <col min="12033" max="12033" width="20.33203125" style="125" customWidth="1"/>
+    <col min="12034" max="12034" width="18" style="125" customWidth="1"/>
+    <col min="12035" max="12035" width="21.33203125" style="125" customWidth="1"/>
+    <col min="12036" max="12286" width="9.33203125" style="125"/>
+    <col min="12287" max="12287" width="7.33203125" style="125" customWidth="1"/>
+    <col min="12288" max="12288" width="47.5" style="125" customWidth="1"/>
+    <col min="12289" max="12289" width="20.33203125" style="125" customWidth="1"/>
+    <col min="12290" max="12290" width="18" style="125" customWidth="1"/>
+    <col min="12291" max="12291" width="21.33203125" style="125" customWidth="1"/>
+    <col min="12292" max="12542" width="9.33203125" style="125"/>
+    <col min="12543" max="12543" width="7.33203125" style="125" customWidth="1"/>
+    <col min="12544" max="12544" width="47.5" style="125" customWidth="1"/>
+    <col min="12545" max="12545" width="20.33203125" style="125" customWidth="1"/>
+    <col min="12546" max="12546" width="18" style="125" customWidth="1"/>
+    <col min="12547" max="12547" width="21.33203125" style="125" customWidth="1"/>
+    <col min="12548" max="12798" width="9.33203125" style="125"/>
+    <col min="12799" max="12799" width="7.33203125" style="125" customWidth="1"/>
+    <col min="12800" max="12800" width="47.5" style="125" customWidth="1"/>
+    <col min="12801" max="12801" width="20.33203125" style="125" customWidth="1"/>
+    <col min="12802" max="12802" width="18" style="125" customWidth="1"/>
+    <col min="12803" max="12803" width="21.33203125" style="125" customWidth="1"/>
+    <col min="12804" max="13054" width="9.33203125" style="125"/>
+    <col min="13055" max="13055" width="7.33203125" style="125" customWidth="1"/>
+    <col min="13056" max="13056" width="47.5" style="125" customWidth="1"/>
+    <col min="13057" max="13057" width="20.33203125" style="125" customWidth="1"/>
+    <col min="13058" max="13058" width="18" style="125" customWidth="1"/>
+    <col min="13059" max="13059" width="21.33203125" style="125" customWidth="1"/>
+    <col min="13060" max="13310" width="9.33203125" style="125"/>
+    <col min="13311" max="13311" width="7.33203125" style="125" customWidth="1"/>
+    <col min="13312" max="13312" width="47.5" style="125" customWidth="1"/>
+    <col min="13313" max="13313" width="20.33203125" style="125" customWidth="1"/>
+    <col min="13314" max="13314" width="18" style="125" customWidth="1"/>
+    <col min="13315" max="13315" width="21.33203125" style="125" customWidth="1"/>
+    <col min="13316" max="13566" width="9.33203125" style="125"/>
+    <col min="13567" max="13567" width="7.33203125" style="125" customWidth="1"/>
+    <col min="13568" max="13568" width="47.5" style="125" customWidth="1"/>
+    <col min="13569" max="13569" width="20.33203125" style="125" customWidth="1"/>
+    <col min="13570" max="13570" width="18" style="125" customWidth="1"/>
+    <col min="13571" max="13571" width="21.33203125" style="125" customWidth="1"/>
+    <col min="13572" max="13822" width="9.33203125" style="125"/>
+    <col min="13823" max="13823" width="7.33203125" style="125" customWidth="1"/>
+    <col min="13824" max="13824" width="47.5" style="125" customWidth="1"/>
+    <col min="13825" max="13825" width="20.33203125" style="125" customWidth="1"/>
+    <col min="13826" max="13826" width="18" style="125" customWidth="1"/>
+    <col min="13827" max="13827" width="21.33203125" style="125" customWidth="1"/>
+    <col min="13828" max="14078" width="9.33203125" style="125"/>
+    <col min="14079" max="14079" width="7.33203125" style="125" customWidth="1"/>
+    <col min="14080" max="14080" width="47.5" style="125" customWidth="1"/>
+    <col min="14081" max="14081" width="20.33203125" style="125" customWidth="1"/>
+    <col min="14082" max="14082" width="18" style="125" customWidth="1"/>
+    <col min="14083" max="14083" width="21.33203125" style="125" customWidth="1"/>
+    <col min="14084" max="14334" width="9.33203125" style="125"/>
+    <col min="14335" max="14335" width="7.33203125" style="125" customWidth="1"/>
+    <col min="14336" max="14336" width="47.5" style="125" customWidth="1"/>
+    <col min="14337" max="14337" width="20.33203125" style="125" customWidth="1"/>
+    <col min="14338" max="14338" width="18" style="125" customWidth="1"/>
+    <col min="14339" max="14339" width="21.33203125" style="125" customWidth="1"/>
+    <col min="14340" max="14590" width="9.33203125" style="125"/>
+    <col min="14591" max="14591" width="7.33203125" style="125" customWidth="1"/>
+    <col min="14592" max="14592" width="47.5" style="125" customWidth="1"/>
+    <col min="14593" max="14593" width="20.33203125" style="125" customWidth="1"/>
+    <col min="14594" max="14594" width="18" style="125" customWidth="1"/>
+    <col min="14595" max="14595" width="21.33203125" style="125" customWidth="1"/>
+    <col min="14596" max="14846" width="9.33203125" style="125"/>
+    <col min="14847" max="14847" width="7.33203125" style="125" customWidth="1"/>
+    <col min="14848" max="14848" width="47.5" style="125" customWidth="1"/>
+    <col min="14849" max="14849" width="20.33203125" style="125" customWidth="1"/>
+    <col min="14850" max="14850" width="18" style="125" customWidth="1"/>
+    <col min="14851" max="14851" width="21.33203125" style="125" customWidth="1"/>
+    <col min="14852" max="15102" width="9.33203125" style="125"/>
+    <col min="15103" max="15103" width="7.33203125" style="125" customWidth="1"/>
+    <col min="15104" max="15104" width="47.5" style="125" customWidth="1"/>
+    <col min="15105" max="15105" width="20.33203125" style="125" customWidth="1"/>
+    <col min="15106" max="15106" width="18" style="125" customWidth="1"/>
+    <col min="15107" max="15107" width="21.33203125" style="125" customWidth="1"/>
+    <col min="15108" max="15358" width="9.33203125" style="125"/>
+    <col min="15359" max="15359" width="7.33203125" style="125" customWidth="1"/>
+    <col min="15360" max="15360" width="47.5" style="125" customWidth="1"/>
+    <col min="15361" max="15361" width="20.33203125" style="125" customWidth="1"/>
+    <col min="15362" max="15362" width="18" style="125" customWidth="1"/>
+    <col min="15363" max="15363" width="21.33203125" style="125" customWidth="1"/>
+    <col min="15364" max="15614" width="9.33203125" style="125"/>
+    <col min="15615" max="15615" width="7.33203125" style="125" customWidth="1"/>
+    <col min="15616" max="15616" width="47.5" style="125" customWidth="1"/>
+    <col min="15617" max="15617" width="20.33203125" style="125" customWidth="1"/>
+    <col min="15618" max="15618" width="18" style="125" customWidth="1"/>
+    <col min="15619" max="15619" width="21.33203125" style="125" customWidth="1"/>
+    <col min="15620" max="15870" width="9.33203125" style="125"/>
+    <col min="15871" max="15871" width="7.33203125" style="125" customWidth="1"/>
+    <col min="15872" max="15872" width="47.5" style="125" customWidth="1"/>
+    <col min="15873" max="15873" width="20.33203125" style="125" customWidth="1"/>
+    <col min="15874" max="15874" width="18" style="125" customWidth="1"/>
+    <col min="15875" max="15875" width="21.33203125" style="125" customWidth="1"/>
+    <col min="15876" max="16126" width="9.33203125" style="125"/>
+    <col min="16127" max="16127" width="7.33203125" style="125" customWidth="1"/>
+    <col min="16128" max="16128" width="47.5" style="125" customWidth="1"/>
+    <col min="16129" max="16129" width="20.33203125" style="125" customWidth="1"/>
+    <col min="16130" max="16130" width="18" style="125" customWidth="1"/>
+    <col min="16131" max="16131" width="21.33203125" style="125" customWidth="1"/>
+    <col min="16132" max="16384" width="9.33203125" style="125"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="136"/>
+      <c r="C11" s="135"/>
+    </row>
+    <row r="12" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="136"/>
+      <c r="C12" s="135"/>
+    </row>
+    <row r="13" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="136"/>
+      <c r="C13" s="135"/>
+    </row>
+    <row r="14" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="136"/>
+      <c r="C14" s="135"/>
+    </row>
+    <row r="15" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="134">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="133"/>
+      <c r="C16" s="131"/>
+    </row>
+    <row r="17" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="132"/>
+      <c r="C17" s="131"/>
+    </row>
+    <row r="18" spans="1:3" s="128" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="132"/>
+      <c r="C18" s="131"/>
+    </row>
+    <row r="19" spans="1:3" s="128" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A19" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+    </row>
+    <row r="20" spans="1:3" s="128" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A20" s="129"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="140" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="137">
+        <v>1</v>
+      </c>
+      <c r="B22" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="139">
+        <f>'Smoke Extraction (S-2)'!G34</f>
+        <v>5761000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="140" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="137">
+        <v>2</v>
+      </c>
+      <c r="B23" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="139">
+        <f>'Smoke Extraction (S-3)'!G34</f>
+        <v>6039000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="140" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="137">
+        <v>3</v>
+      </c>
+      <c r="B24" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="139">
+        <f>'Smoke Extraction (S-4)'!G34</f>
+        <v>7094500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="140" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="142">
+        <f>SUM(C22:C24)</f>
+        <v>18894500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="140" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="143"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205B7B2-4770-4673-A042-AB0947A05090}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BI520"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7061,14 +7930,14 @@
     <mergeCell ref="B49:G49"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.23622047244094491" bottom="0.55118110236220474" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="11" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B84AC3-B18E-4ABF-AE13-E7EC38186645}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7076,9 +7945,9 @@
   <dimension ref="A1:BI456"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I16" sqref="I16"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12136,11 +13005,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -12150,6 +13014,11 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.23622047244094491" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12159,7 +13028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B407576-812D-4675-86E0-9912DD437196}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12167,9 +13036,9 @@
   <dimension ref="A1:BL515"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="I16" sqref="I16"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17786,11 +18655,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -17800,6 +18664,11 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.23622047244094491" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
